--- a/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T11:42:09+00:00</t>
+    <t>2025-07-07T11:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T11:56:21+00:00</t>
+    <t>2025-07-07T12:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T12:26:47+00:00</t>
+    <t>2025-07-07T12:57:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T12:57:16+00:00</t>
+    <t>2025-07-07T13:21:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
+++ b/feature/Fix-Practitioner-Regul/ig/StructureDefinition-FrScheduleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T13:21:34+00:00</t>
+    <t>2025-07-10T08:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
